--- a/文档/FE/TS.xlsx
+++ b/文档/FE/TS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装饰器" sheetId="1" r:id="rId1"/>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -742,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -810,7 +810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="66">
+    <row r="10" spans="1:2" ht="57.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -859,5 +859,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档/FE/TS.xlsx
+++ b/文档/FE/TS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装饰器" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="接口" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -236,32 +237,33 @@
     <t>接口的作用就是为这些类型命名和为你的代码或第三方代码定义契约。</t>
   </si>
   <si>
+    <t>类有两部分：静态部分和实例部分。 泛型类指的是实例部分的类型，所以类的静态属性不能使用这个泛型类型。</t>
+  </si>
+  <si>
+    <t>泛型约束</t>
+  </si>
+  <si>
+    <t>我们定义一个接口来描述约束条件。</t>
+  </si>
+  <si>
+    <t>在泛型里使用类类型</t>
+  </si>
+  <si>
+    <t>在TypeScript使用泛型创建工厂函数时，需要引用构造函数的类类型。</t>
+  </si>
+  <si>
+    <t>对于静态成员来说是类的构造函数，对于实例成员是类的原型对象。</t>
+  </si>
+  <si>
     <t>泛型类</t>
-  </si>
-  <si>
-    <t>类有两部分：静态部分和实例部分。 泛型类指的是实例部分的类型，所以类的静态属性不能使用这个泛型类型。</t>
-  </si>
-  <si>
-    <t>泛型约束</t>
-  </si>
-  <si>
-    <t>我们定义一个接口来描述约束条件。</t>
-  </si>
-  <si>
-    <t>在泛型里使用类类型</t>
-  </si>
-  <si>
-    <t>在TypeScript使用泛型创建工厂函数时，需要引用构造函数的类类型。</t>
-  </si>
-  <si>
-    <t>对于静态成员来说是类的构造函数，对于实例成员是类的原型对象。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +362,13 @@
       <color rgb="FF152740"/>
       <name val="Wf_segoe-ui_semilight"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF152740"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -382,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -395,6 +404,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -704,7 +716,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -728,7 +740,7 @@
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -742,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -802,28 +814,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="33">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.75" customHeight="1">
       <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="49.5">
       <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
